--- a/data/trans_orig/P6906-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DEF2CC1-AF6C-4CEA-B877-B1766F2BBBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8131532-DDA0-4229-8D9B-36D13B7AF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09E0E220-E693-4488-9883-F84E0C04629A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A488D652-68BD-4807-8791-2AED9314D987}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>64,32%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,06%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1699 +197,1699 @@
     <t>17,4%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>6,96%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>68,31%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>92,73%</t>
   </si>
   <si>
     <t>74,05%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>93,38%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>80,38%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9857942E-0788-41E2-A716-CBFFEC55193C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC624EBA-12A5-49E9-B1AE-F8E8C89C4B7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,13 +2750,13 @@
         <v>3024</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2765,13 +2765,13 @@
         <v>9395</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2786,13 @@
         <v>30244</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2801,13 +2801,13 @@
         <v>18700</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -2816,13 +2816,13 @@
         <v>48944</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2890,13 @@
         <v>11585</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2905,13 +2905,13 @@
         <v>2117</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2920,13 +2920,13 @@
         <v>13702</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2941,13 @@
         <v>46738</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2956,13 +2956,13 @@
         <v>20589</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -2971,13 +2971,13 @@
         <v>67327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3045,13 @@
         <v>2711</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3060,13 +3060,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3075,13 +3075,13 @@
         <v>3731</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3096,13 @@
         <v>20243</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3111,13 +3111,13 @@
         <v>5950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3126,13 +3126,13 @@
         <v>26194</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3200,13 @@
         <v>8987</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3215,13 +3215,13 @@
         <v>2070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3230,13 +3230,13 @@
         <v>11057</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3251,13 @@
         <v>32823</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3266,13 +3266,13 @@
         <v>12024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -3281,13 +3281,13 @@
         <v>44846</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3355,13 @@
         <v>15524</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3370,13 +3370,13 @@
         <v>11388</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3385,13 +3385,13 @@
         <v>26912</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>72924</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -3421,13 +3421,13 @@
         <v>32147</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -3436,13 +3436,13 @@
         <v>105071</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3510,13 @@
         <v>29528</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3525,13 +3525,13 @@
         <v>14204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -3540,13 +3540,13 @@
         <v>43732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3561,13 @@
         <v>79387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3576,13 +3576,13 @@
         <v>35582</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -3591,13 +3591,13 @@
         <v>114969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3665,13 @@
         <v>106686</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -3680,13 +3680,13 @@
         <v>47644</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -3695,13 +3695,13 @@
         <v>154330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3716,13 @@
         <v>365619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>169</v>
@@ -3731,13 +3731,13 @@
         <v>172477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>521</v>
@@ -3746,13 +3746,13 @@
         <v>538097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4060C93F-46D8-4024-AFB2-6412FA469842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C374E0-84F5-436B-BB0F-F2F8C85B4758}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4093,13 @@
         <v>17209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4108,13 +4108,13 @@
         <v>7011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4123,13 +4123,13 @@
         <v>24220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4144,13 @@
         <v>39381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4159,13 +4159,13 @@
         <v>27304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4174,13 +4174,13 @@
         <v>66685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4248,13 @@
         <v>6753</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4263,13 +4263,13 @@
         <v>4915</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4278,13 +4278,13 @@
         <v>11668</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4299,13 @@
         <v>18552</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4314,13 +4314,13 @@
         <v>13020</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4329,13 +4329,13 @@
         <v>31572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4391,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4403,13 +4403,13 @@
         <v>32823</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4418,13 +4418,13 @@
         <v>22145</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4433,13 +4433,13 @@
         <v>54967</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4454,13 @@
         <v>52410</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4469,13 +4469,13 @@
         <v>36542</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -4484,13 +4484,13 @@
         <v>88953</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4546,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4558,13 +4558,13 @@
         <v>1014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4573,13 +4573,13 @@
         <v>2888</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4588,13 +4588,13 @@
         <v>3902</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4609,13 @@
         <v>15155</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5193,13 +5193,13 @@
         <v>63492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -5208,13 +5208,13 @@
         <v>148212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5229,13 @@
         <v>241505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5244,13 +5244,13 @@
         <v>151343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -5259,13 +5259,13 @@
         <v>392848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9DF338-D344-4A98-9D62-52361258E941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97CDECB-879E-4FEF-BC39-5307D0143E38}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5469,13 @@
         <v>21427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5484,13 +5484,13 @@
         <v>18926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5499,13 +5499,13 @@
         <v>40353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5520,13 @@
         <v>37150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5535,13 +5535,13 @@
         <v>21958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5550,13 +5550,13 @@
         <v>59108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5624,13 @@
         <v>13193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5639,13 +5639,13 @@
         <v>11353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5654,13 +5654,13 @@
         <v>24546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5675,13 @@
         <v>69593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5690,13 +5690,13 @@
         <v>31344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -5705,13 +5705,13 @@
         <v>100937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5779,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5794,13 +5794,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5809,13 +5809,13 @@
         <v>2522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5830,13 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5845,13 +5845,13 @@
         <v>10844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -5866,7 +5866,7 @@
         <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5922,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,7 +6107,7 @@
         <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>384</v>
@@ -6161,7 +6161,7 @@
         <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>397</v>
@@ -6277,10 +6277,10 @@
         <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6295,13 @@
         <v>20571</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6310,13 +6310,13 @@
         <v>2848</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6325,13 +6325,13 @@
         <v>23417</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6399,13 @@
         <v>14726</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -6414,13 +6414,13 @@
         <v>14478</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6429,13 +6429,13 @@
         <v>29205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6450,13 @@
         <v>63616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -6465,13 +6465,13 @@
         <v>41204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -6480,13 +6480,13 @@
         <v>104819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6554,13 @@
         <v>11362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6569,13 +6569,13 @@
         <v>4626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6584,13 +6584,13 @@
         <v>15988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6605,13 @@
         <v>27912</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6620,13 +6620,13 @@
         <v>16774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6635,13 +6635,13 @@
         <v>44686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6709,13 @@
         <v>83635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -6724,13 +6724,13 @@
         <v>70601</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -6739,13 +6739,13 @@
         <v>154237</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6760,13 @@
         <v>266366</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -6775,13 +6775,13 @@
         <v>145697</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8634C1-8974-4103-A299-7754B255F1D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B71BE-E2A0-4716-B2C3-4F6BE5789EE8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7161,7 +7161,7 @@
         <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -7170,7 +7170,7 @@
         <v>17228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>484</v>
@@ -7209,10 +7209,10 @@
         <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -7221,7 +7221,7 @@
         <v>31393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>492</v>
@@ -7343,10 +7343,10 @@
         <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7361,13 @@
         <v>43120</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -7376,13 +7376,13 @@
         <v>37081</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7391,13 +7391,13 @@
         <v>80201</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>513</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,7 +7453,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7465,13 +7465,13 @@
         <v>12805</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -7480,13 +7480,13 @@
         <v>18034</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7495,13 +7495,13 @@
         <v>30839</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7516,13 @@
         <v>29329</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -7531,13 +7531,13 @@
         <v>44125</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -7546,13 +7546,13 @@
         <v>73454</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7620,13 +7620,13 @@
         <v>2091</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7635,13 +7635,13 @@
         <v>1017</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7650,13 +7650,13 @@
         <v>3109</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,10 +7671,10 @@
         <v>17351</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>542</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8121,7 +8121,7 @@
         <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8136,13 @@
         <v>61057</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8151,13 +8151,13 @@
         <v>57917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -8166,13 +8166,13 @@
         <v>118973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8240,13 @@
         <v>65648</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>133</v>
@@ -8255,13 +8255,13 @@
         <v>96051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M28" s="7">
         <v>194</v>
@@ -8270,13 +8270,13 @@
         <v>161699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8291,13 @@
         <v>287370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H29" s="7">
         <v>341</v>
@@ -8306,13 +8306,13 @@
         <v>265160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
@@ -8321,10 +8321,10 @@
         <v>552529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>616</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6906-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8131532-DDA0-4229-8D9B-36D13B7AF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21F85FD-D73B-47FA-ABAE-2203657D6098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A488D652-68BD-4807-8791-2AED9314D987}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D20BEE92-F2E5-4E03-859E-921A4A5298C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1509 +77,1545 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>21,44%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>52,07%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
     <t>30,39%</t>
   </si>
   <si>
@@ -1742,9 +1778,6 @@
     <t>85,77%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
     <t>9,87%</t>
   </si>
   <si>
@@ -1767,9 +1800,6 @@
   </si>
   <si>
     <t>33,36%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
   </si>
   <si>
     <t>70,57%</t>
@@ -2301,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC624EBA-12A5-49E9-B1AE-F8E8C89C4B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2223BEED-C763-42E8-9FB3-C954DE0708A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,13 +2780,13 @@
         <v>3024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2765,13 +2795,13 @@
         <v>9395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2816,13 @@
         <v>30244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2801,13 +2831,13 @@
         <v>18700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -2816,13 +2846,13 @@
         <v>48944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2908,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2920,13 @@
         <v>11585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2905,13 +2935,13 @@
         <v>2117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2920,13 +2950,13 @@
         <v>13702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2971,13 @@
         <v>46738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2956,13 +2986,13 @@
         <v>20589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -2971,13 +3001,13 @@
         <v>67327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3075,13 @@
         <v>2711</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3060,13 +3090,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3075,13 +3105,13 @@
         <v>3731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3126,13 @@
         <v>20243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3111,13 +3141,13 @@
         <v>5950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3126,13 +3156,13 @@
         <v>26194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3230,13 @@
         <v>8987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3215,13 +3245,13 @@
         <v>2070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3230,13 +3260,13 @@
         <v>11057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3281,13 @@
         <v>32823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3266,13 +3296,13 @@
         <v>12024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -3281,13 +3311,13 @@
         <v>44846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3385,13 @@
         <v>15524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3370,13 +3400,13 @@
         <v>11388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3385,13 +3415,13 @@
         <v>26912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3436,13 @@
         <v>72924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -3421,13 +3451,13 @@
         <v>32147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -3436,13 +3466,13 @@
         <v>105071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3540,13 @@
         <v>29528</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3525,13 +3555,13 @@
         <v>14204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -3540,13 +3570,13 @@
         <v>43732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3591,13 @@
         <v>79387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3576,13 +3606,13 @@
         <v>35582</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -3591,13 +3621,13 @@
         <v>114969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3695,13 @@
         <v>106686</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -3680,13 +3710,13 @@
         <v>47644</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -3695,13 +3725,13 @@
         <v>154330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3746,13 @@
         <v>365619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>169</v>
@@ -3731,13 +3761,13 @@
         <v>172477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>521</v>
@@ -3746,13 +3776,13 @@
         <v>538097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C374E0-84F5-436B-BB0F-F2F8C85B4758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F98CDD-BF68-4712-B5ED-DA928DDFDC9B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4123,13 @@
         <v>17209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4108,13 +4138,13 @@
         <v>7011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4123,13 +4153,13 @@
         <v>24220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4174,13 @@
         <v>39381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4159,13 +4189,13 @@
         <v>27304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4174,13 +4204,13 @@
         <v>66685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4278,13 @@
         <v>6753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4263,13 +4293,13 @@
         <v>4915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4278,13 +4308,13 @@
         <v>11668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4329,13 @@
         <v>18552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4314,13 +4344,13 @@
         <v>13020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4329,13 +4359,13 @@
         <v>31572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4421,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4403,13 +4433,13 @@
         <v>32823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4418,13 +4448,13 @@
         <v>22145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4433,13 +4463,13 @@
         <v>54967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4484,13 @@
         <v>52410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4469,13 +4499,13 @@
         <v>36542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -4484,13 +4514,13 @@
         <v>88953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4576,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4558,13 +4588,13 @@
         <v>1014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4573,13 +4603,13 @@
         <v>2888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4588,13 +4618,13 @@
         <v>3902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4639,13 @@
         <v>15155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4624,13 +4654,13 @@
         <v>8773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4639,13 +4669,13 @@
         <v>23928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4731,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,13 +4743,13 @@
         <v>6920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4728,13 +4758,13 @@
         <v>5120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4743,13 +4773,13 @@
         <v>12041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4794,13 @@
         <v>36460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4779,13 +4809,13 @@
         <v>10064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4794,13 +4824,13 @@
         <v>46523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4886,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4898,13 @@
         <v>13165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4883,13 +4913,13 @@
         <v>13237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -4898,13 +4928,13 @@
         <v>26403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4949,13 @@
         <v>41265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -4934,13 +4964,13 @@
         <v>33143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>71</v>
@@ -4949,13 +4979,13 @@
         <v>74407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +5053,13 @@
         <v>6836</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5038,13 +5068,13 @@
         <v>8176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5053,13 +5083,13 @@
         <v>15011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5104,13 @@
         <v>38283</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5089,13 +5119,13 @@
         <v>22496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -5104,13 +5134,13 @@
         <v>60780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5208,13 @@
         <v>84720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -5193,13 +5223,13 @@
         <v>63492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -5208,13 +5238,13 @@
         <v>148212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5259,13 @@
         <v>241505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5244,13 +5274,13 @@
         <v>151343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -5259,13 +5289,13 @@
         <v>392848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97CDECB-879E-4FEF-BC39-5307D0143E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F0A5F1-F73E-4681-8DA4-4099485A33B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5499,13 @@
         <v>21427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5484,13 +5514,13 @@
         <v>18926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5499,13 +5529,13 @@
         <v>40353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5550,13 @@
         <v>37150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5535,13 +5565,13 @@
         <v>21958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5642,10 +5672,10 @@
         <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5654,13 +5684,13 @@
         <v>24546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5705,13 @@
         <v>69593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5690,13 +5720,13 @@
         <v>31344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -5705,13 +5735,13 @@
         <v>100937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5809,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5794,13 +5824,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5809,13 +5839,13 @@
         <v>2522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5860,13 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5845,13 +5875,13 @@
         <v>10844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -5860,13 +5890,13 @@
         <v>31233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5952,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5934,13 +5964,13 @@
         <v>15018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5949,13 +5979,13 @@
         <v>12934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5964,13 +5994,13 @@
         <v>27951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6015,13 @@
         <v>17447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6000,13 +6030,13 @@
         <v>17001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6015,13 +6045,13 @@
         <v>34449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6107,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6089,13 +6119,13 @@
         <v>5181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6104,13 +6134,13 @@
         <v>2047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6119,13 +6149,13 @@
         <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6170,13 @@
         <v>9689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6155,13 +6185,13 @@
         <v>3724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -6170,13 +6200,13 @@
         <v>13413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6262,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6274,13 @@
         <v>1863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6259,13 +6289,13 @@
         <v>4579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6274,13 +6304,13 @@
         <v>6443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6325,13 @@
         <v>20571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6310,13 +6340,13 @@
         <v>2848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6325,13 +6355,13 @@
         <v>23417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6429,13 @@
         <v>14726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -6414,13 +6444,13 @@
         <v>14478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6429,13 +6459,13 @@
         <v>29205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6480,13 @@
         <v>63616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -6465,13 +6495,13 @@
         <v>41204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -6480,13 +6510,13 @@
         <v>104819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6584,13 @@
         <v>11362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6569,13 +6599,13 @@
         <v>4626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6584,13 +6614,13 @@
         <v>15988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6635,13 @@
         <v>27912</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6620,13 +6650,13 @@
         <v>16774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6635,13 +6665,13 @@
         <v>44686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6739,13 @@
         <v>83635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -6724,13 +6754,13 @@
         <v>70601</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -6739,13 +6769,13 @@
         <v>154237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6790,13 @@
         <v>266366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -6775,13 +6805,13 @@
         <v>145697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6790,13 +6820,13 @@
         <v>412062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B71BE-E2A0-4716-B2C3-4F6BE5789EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A82CC8-63D7-48EF-8EF7-E18198B9B835}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7030,13 @@
         <v>5035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7015,13 +7045,13 @@
         <v>5397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -7030,13 +7060,13 @@
         <v>10432</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7081,13 @@
         <v>15536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -7066,13 +7096,13 @@
         <v>9446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -7081,13 +7111,13 @@
         <v>24982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7185,13 @@
         <v>12788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -7170,13 +7200,13 @@
         <v>17228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -7185,13 +7215,13 @@
         <v>30016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7236,13 @@
         <v>33213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -7221,13 +7251,13 @@
         <v>31393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -7236,13 +7266,13 @@
         <v>64606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7340,13 @@
         <v>7610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -7325,13 +7355,13 @@
         <v>11840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -7340,13 +7370,13 @@
         <v>19450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7391,13 @@
         <v>43120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -7376,13 +7406,13 @@
         <v>37081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7391,13 +7421,13 @@
         <v>80201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,7 +7483,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7465,13 +7495,13 @@
         <v>12805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -7480,13 +7510,13 @@
         <v>18034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7495,13 +7525,13 @@
         <v>30839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7546,13 @@
         <v>29329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -7531,13 +7561,13 @@
         <v>44125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -7546,13 +7576,13 @@
         <v>73454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7620,13 +7650,13 @@
         <v>2091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7635,13 +7665,13 @@
         <v>1017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7650,13 +7680,13 @@
         <v>3109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7701,13 @@
         <v>17351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7686,13 +7716,13 @@
         <v>10964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -7701,13 +7731,13 @@
         <v>28313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7793,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7805,13 @@
         <v>5364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7790,13 +7820,13 @@
         <v>8425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7805,13 +7835,13 @@
         <v>13789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7856,13 @@
         <v>27342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7841,13 +7871,13 @@
         <v>24046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7856,13 +7886,13 @@
         <v>51388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7960,13 @@
         <v>13956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -7945,13 +7975,13 @@
         <v>24891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -7960,13 +7990,13 @@
         <v>38847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8011,13 @@
         <v>60421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>171</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -7996,13 +8026,13 @@
         <v>50189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -8011,13 +8041,13 @@
         <v>110611</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8115,13 @@
         <v>5999</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -8100,13 +8130,13 @@
         <v>9219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8115,13 +8145,13 @@
         <v>15218</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8166,13 @@
         <v>61057</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8151,13 +8181,13 @@
         <v>57917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -8166,13 +8196,13 @@
         <v>118973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8270,13 @@
         <v>65648</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>133</v>
@@ -8258,10 +8288,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>194</v>
@@ -8270,13 +8300,13 @@
         <v>161699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8321,13 @@
         <v>287370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>341</v>
@@ -8306,13 +8336,13 @@
         <v>265160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
@@ -8321,13 +8351,13 @@
         <v>552529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6906-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21F85FD-D73B-47FA-ABAE-2203657D6098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F50705-1A36-4A88-AA93-AB4DD2D4F9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D20BEE92-F2E5-4E03-859E-921A4A5298C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AD0C08C-CD94-488B-97C9-8FEB8EB57448}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>64,32%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1786 +140,1756 @@
     <t>23,06%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2223BEED-C763-42E8-9FB3-C954DE0708A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F8010B-E758-4A68-AFEA-FA7E33517E8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3701,7 +3671,7 @@
         <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -3710,13 +3680,13 @@
         <v>47644</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>144</v>
@@ -3725,13 +3695,13 @@
         <v>154330</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3716,13 @@
         <v>365619</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>169</v>
@@ -3761,13 +3731,13 @@
         <v>172477</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>521</v>
@@ -3776,13 +3746,13 @@
         <v>538097</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F98CDD-BF68-4712-B5ED-DA928DDFDC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8119FD-3064-47EC-AA9E-B9734E06A0EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4093,13 @@
         <v>17209</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4138,13 +4108,13 @@
         <v>7011</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4153,13 +4123,13 @@
         <v>24220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4144,13 @@
         <v>39381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4189,13 +4159,13 @@
         <v>27304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4204,13 +4174,13 @@
         <v>66685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4248,13 @@
         <v>6753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4293,13 +4263,13 @@
         <v>4915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4308,13 +4278,13 @@
         <v>11668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4299,13 @@
         <v>18552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4344,13 +4314,13 @@
         <v>13020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4359,13 +4329,13 @@
         <v>31572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4403,13 @@
         <v>32823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4448,13 +4418,13 @@
         <v>22145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4463,13 +4433,13 @@
         <v>54967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4454,13 @@
         <v>52410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4499,13 +4469,13 @@
         <v>36542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -4514,13 +4484,13 @@
         <v>88953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4558,13 @@
         <v>1014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4603,13 +4573,13 @@
         <v>2888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4618,13 +4588,13 @@
         <v>3902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,10 +4609,10 @@
         <v>15155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>84</v>
@@ -4654,13 +4624,13 @@
         <v>8773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4669,13 +4639,13 @@
         <v>23928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4713,13 @@
         <v>6920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4758,13 +4728,13 @@
         <v>5120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4773,13 +4743,13 @@
         <v>12041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4764,13 @@
         <v>36460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4809,13 +4779,13 @@
         <v>10064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4824,13 +4794,13 @@
         <v>46523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4868,13 @@
         <v>13165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4913,13 +4883,13 @@
         <v>13237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -4928,13 +4898,13 @@
         <v>26403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4919,13 @@
         <v>41265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -4964,13 +4934,13 @@
         <v>33143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>71</v>
@@ -4979,13 +4949,13 @@
         <v>74407</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5023,13 @@
         <v>6836</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5068,13 +5038,13 @@
         <v>8176</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5083,13 +5053,13 @@
         <v>15011</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5074,13 @@
         <v>38283</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5119,13 +5089,13 @@
         <v>22496</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -5134,13 +5104,13 @@
         <v>60780</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5178,13 @@
         <v>84720</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -5223,13 +5193,13 @@
         <v>63492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -5238,13 +5208,13 @@
         <v>148212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5229,13 @@
         <v>241505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5274,13 +5244,13 @@
         <v>151343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -5289,13 +5259,13 @@
         <v>392848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F0A5F1-F73E-4681-8DA4-4099485A33B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220790C-759E-4BB1-8B5B-E63CE0A240A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5469,13 @@
         <v>21427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5514,13 +5484,13 @@
         <v>18926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5529,13 +5499,13 @@
         <v>40353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5520,13 @@
         <v>37150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5565,13 +5535,13 @@
         <v>21958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5580,13 +5550,13 @@
         <v>59108</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5624,13 @@
         <v>13193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5669,13 +5639,13 @@
         <v>11353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5684,13 +5654,13 @@
         <v>24546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5675,13 @@
         <v>69593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5720,13 +5690,13 @@
         <v>31344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -5735,13 +5705,13 @@
         <v>100937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5779,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5824,13 +5794,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5839,13 +5809,13 @@
         <v>2522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,10 +5830,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>84</v>
@@ -5875,10 +5845,10 @@
         <v>10844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>84</v>
@@ -5890,10 +5860,10 @@
         <v>31233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>84</v>
@@ -5964,13 +5934,13 @@
         <v>15018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5979,13 +5949,13 @@
         <v>12934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5994,13 +5964,13 @@
         <v>27951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5985,13 @@
         <v>17447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6030,13 +6000,13 @@
         <v>17001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6045,13 +6015,13 @@
         <v>34449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6089,13 @@
         <v>5181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6134,13 +6104,13 @@
         <v>2047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6149,13 +6119,13 @@
         <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6140,13 @@
         <v>9689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6185,10 +6155,10 @@
         <v>3724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>84</v>
@@ -6200,13 +6170,13 @@
         <v>13413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6244,13 @@
         <v>1863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6289,13 +6259,13 @@
         <v>4579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6304,13 +6274,13 @@
         <v>6443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,10 +6295,10 @@
         <v>20571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>84</v>
@@ -6340,13 +6310,13 @@
         <v>2848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6355,13 +6325,13 @@
         <v>23417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6399,13 @@
         <v>14726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -6444,13 +6414,13 @@
         <v>14478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6459,13 +6429,13 @@
         <v>29205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6450,13 @@
         <v>63616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -6495,13 +6465,13 @@
         <v>41204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -6510,13 +6480,13 @@
         <v>104819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6554,13 @@
         <v>11362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6599,13 +6569,13 @@
         <v>4626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6614,13 +6584,13 @@
         <v>15988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6605,13 @@
         <v>27912</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6650,13 +6620,13 @@
         <v>16774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6665,13 +6635,13 @@
         <v>44686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6709,13 @@
         <v>83635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -6754,13 +6724,13 @@
         <v>70601</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -6769,13 +6739,13 @@
         <v>154237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6760,13 @@
         <v>266366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -6805,13 +6775,13 @@
         <v>145697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6820,13 +6790,13 @@
         <v>412062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A82CC8-63D7-48EF-8EF7-E18198B9B835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C17634-C612-4CF2-9902-D2536A4A7BEB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7000,13 @@
         <v>5035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7045,13 +7015,13 @@
         <v>5397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -7060,13 +7030,13 @@
         <v>10432</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7051,13 @@
         <v>15536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -7096,13 +7066,13 @@
         <v>9446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -7111,13 +7081,13 @@
         <v>24982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7155,13 @@
         <v>12788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -7200,13 +7170,13 @@
         <v>17228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -7215,13 +7185,13 @@
         <v>30016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7206,13 @@
         <v>33213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -7251,13 +7221,13 @@
         <v>31393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -7266,13 +7236,13 @@
         <v>64606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7310,13 @@
         <v>7610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -7355,13 +7325,13 @@
         <v>11840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -7370,13 +7340,13 @@
         <v>19450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7361,13 @@
         <v>43120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -7406,13 +7376,13 @@
         <v>37081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7421,13 +7391,13 @@
         <v>80201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7465,13 @@
         <v>12805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -7510,13 +7480,13 @@
         <v>18034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7525,13 +7495,13 @@
         <v>30839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7516,13 @@
         <v>29329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -7561,13 +7531,13 @@
         <v>44125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -7576,13 +7546,13 @@
         <v>73454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7620,13 @@
         <v>2091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7665,13 +7635,13 @@
         <v>1017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7680,13 +7650,13 @@
         <v>3109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7671,13 @@
         <v>17351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7716,13 +7686,13 @@
         <v>10964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -7731,13 +7701,13 @@
         <v>28313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7775,13 @@
         <v>5364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7820,13 +7790,13 @@
         <v>8425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7835,13 +7805,13 @@
         <v>13789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7826,13 @@
         <v>27342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7871,13 +7841,13 @@
         <v>24046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7886,13 +7856,13 @@
         <v>51388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7930,13 @@
         <v>13956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -7975,13 +7945,13 @@
         <v>24891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -7990,13 +7960,13 @@
         <v>38847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7981,13 @@
         <v>60421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -8026,13 +7996,13 @@
         <v>50189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -8041,13 +8011,13 @@
         <v>110611</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8085,13 @@
         <v>5999</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -8130,13 +8100,13 @@
         <v>9219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8145,13 +8115,13 @@
         <v>15218</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8136,13 @@
         <v>61057</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8181,13 +8151,13 @@
         <v>57917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -8196,13 +8166,13 @@
         <v>118973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8240,13 @@
         <v>65648</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>133</v>
@@ -8285,13 +8255,13 @@
         <v>96051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>194</v>
@@ -8300,13 +8270,13 @@
         <v>161699</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8291,13 @@
         <v>287370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H29" s="7">
         <v>341</v>
@@ -8336,13 +8306,13 @@
         <v>265160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
@@ -8351,13 +8321,13 @@
         <v>552529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6906-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F50705-1A36-4A88-AA93-AB4DD2D4F9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8809C33-A63B-4D6A-8B4E-095EF137DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AD0C08C-CD94-488B-97C9-8FEB8EB57448}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B12BDA9-2B12-40C0-9963-A8AAC13EA793}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="624">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -680,58 +731,58 @@
     <t>84,44%</t>
   </si>
   <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>6,27%</t>
@@ -1388,9 +1439,6 @@
     <t>23,9%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
     <t>29,0%</t>
   </si>
   <si>
@@ -1412,9 +1460,6 @@
     <t>71,0%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
     <t>67,36%</t>
   </si>
   <si>
@@ -1430,466 +1475,442 @@
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F8010B-E758-4A68-AFEA-FA7E33517E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17591433-2B62-413B-BF39-97837A71CDC2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3832,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8119FD-3064-47EC-AA9E-B9734E06A0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3BC44D-EC4C-4BD6-9035-CD68AFA9D948}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3950,43 +3971,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18980</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11712</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30691</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,43 +4022,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21393</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>17440</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="N5" s="7">
+        <v>38834</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,43 +4073,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40373</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="7">
+        <v>29152</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N6" s="7">
+        <v>69525</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4132,13 @@
         <v>17209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4108,13 +4147,13 @@
         <v>7011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4123,13 +4162,13 @@
         <v>24220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4183,13 @@
         <v>39381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4159,13 +4198,13 @@
         <v>27304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4174,10 +4213,10 @@
         <v>66685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>60</v>
@@ -4248,13 +4287,13 @@
         <v>6753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4263,13 +4302,13 @@
         <v>4915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4278,13 +4317,13 @@
         <v>11668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4338,13 @@
         <v>18552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4314,13 +4353,13 @@
         <v>13020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4329,13 +4368,13 @@
         <v>31572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,49 +4436,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>32823</v>
+        <v>13843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>22145</v>
+        <v>10433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>54967</v>
+        <v>24276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,49 +4487,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>52410</v>
+        <v>31017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>36542</v>
+        <v>19102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>88953</v>
+        <v>50119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>85233</v>
+        <v>44860</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4514,10 +4553,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>58687</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4529,10 +4568,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>143920</v>
+        <v>74395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4558,7 +4597,7 @@
         <v>1014</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>74</v>
@@ -4573,13 +4612,13 @@
         <v>2888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4588,13 +4627,13 @@
         <v>3902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4648,7 @@
         <v>15155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>48</v>
@@ -4624,13 +4663,13 @@
         <v>8773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4639,13 +4678,13 @@
         <v>23928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4752,13 @@
         <v>6920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4728,13 +4767,13 @@
         <v>5120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4743,13 +4782,13 @@
         <v>12041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4803,13 @@
         <v>36460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4779,13 +4818,13 @@
         <v>10064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4794,13 +4833,13 @@
         <v>46523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4907,13 @@
         <v>13165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4883,13 +4922,13 @@
         <v>13237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -4898,13 +4937,13 @@
         <v>26403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4958,13 @@
         <v>41265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -4934,13 +4973,13 @@
         <v>33143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>71</v>
@@ -4949,13 +4988,13 @@
         <v>74407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5062,13 @@
         <v>6836</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5038,13 +5077,13 @@
         <v>8176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5053,13 +5092,13 @@
         <v>15011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5113,13 @@
         <v>38283</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -5089,13 +5128,13 @@
         <v>22496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -5104,13 +5143,13 @@
         <v>60780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5217,13 @@
         <v>84720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -5196,10 +5235,10 @@
         <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -5208,13 +5247,13 @@
         <v>148212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5268,13 @@
         <v>241505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5247,10 +5286,10 @@
         <v>67</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -5259,13 +5298,13 @@
         <v>392848</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3220790C-759E-4BB1-8B5B-E63CE0A240A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9E348E-6062-4A03-B94E-A0EFF95C565D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5508,13 @@
         <v>21427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5484,13 +5523,13 @@
         <v>18926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5499,13 +5538,13 @@
         <v>40353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5559,13 @@
         <v>37150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5535,13 +5574,13 @@
         <v>21958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5550,13 +5589,13 @@
         <v>59108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,10 +5663,10 @@
         <v>13193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>126</v>
@@ -5639,13 +5678,13 @@
         <v>11353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5654,13 +5693,13 @@
         <v>24546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5714,13 @@
         <v>69593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -5690,13 +5729,13 @@
         <v>31344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -5705,13 +5744,13 @@
         <v>100937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5818,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5794,13 +5833,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5809,13 +5848,13 @@
         <v>2522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,10 +5869,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>84</v>
@@ -5845,10 +5884,10 @@
         <v>10844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>84</v>
@@ -5860,10 +5899,10 @@
         <v>31233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>84</v>
@@ -5934,13 +5973,13 @@
         <v>15018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5949,13 +5988,13 @@
         <v>12934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5964,13 +6003,13 @@
         <v>27951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6024,13 @@
         <v>17447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -6000,13 +6039,13 @@
         <v>17001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6015,13 +6054,13 @@
         <v>34449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6128,13 @@
         <v>5181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6104,13 +6143,13 @@
         <v>2047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6119,13 +6158,13 @@
         <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6179,13 @@
         <v>9689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6155,10 +6194,10 @@
         <v>3724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>84</v>
@@ -6170,13 +6209,13 @@
         <v>13413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6283,13 @@
         <v>1863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6259,13 +6298,13 @@
         <v>4579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6274,13 +6313,13 @@
         <v>6443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,10 +6334,10 @@
         <v>20571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>84</v>
@@ -6310,13 +6349,13 @@
         <v>2848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6325,13 +6364,13 @@
         <v>23417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6438,13 @@
         <v>14726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -6414,13 +6453,13 @@
         <v>14478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -6429,13 +6468,13 @@
         <v>29205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6489,13 @@
         <v>63616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -6465,13 +6504,13 @@
         <v>41204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -6480,13 +6519,13 @@
         <v>104819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6593,13 @@
         <v>11362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6569,13 +6608,13 @@
         <v>4626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6584,13 +6623,13 @@
         <v>15988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6644,13 @@
         <v>27912</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6620,13 +6659,13 @@
         <v>16774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6635,13 +6674,13 @@
         <v>44686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6748,13 @@
         <v>83635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>234</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -6724,13 +6763,13 @@
         <v>70601</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -6739,13 +6778,13 @@
         <v>154237</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6799,13 @@
         <v>266366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>244</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -6775,13 +6814,13 @@
         <v>145697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>390</v>
@@ -6790,13 +6829,13 @@
         <v>412062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C17634-C612-4CF2-9902-D2536A4A7BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63578E6-CA4A-4E53-906E-8EFE1878F565}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6997,46 +7036,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5035</v>
+        <v>5995</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>5397</v>
+        <v>5829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>10432</v>
+        <v>11824</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,46 +7087,46 @@
         <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>15536</v>
+        <v>18074</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>9446</v>
+        <v>9926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>24982</v>
+        <v>28000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,7 +7138,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7114,7 +7153,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7129,7 +7168,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7152,46 +7191,46 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>12788</v>
+        <v>12982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>17228</v>
+        <v>16021</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>30016</v>
+        <v>29004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,46 +7242,46 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>33213</v>
+        <v>33298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>31393</v>
+        <v>29422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>64606</v>
+        <v>62719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7293,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7269,7 +7308,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7284,7 +7323,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7307,46 +7346,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7610</v>
+        <v>7386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>11840</v>
+        <v>11117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>19450</v>
+        <v>18503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,46 +7397,46 @@
         <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>43120</v>
+        <v>42109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>37081</v>
+        <v>34809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>80201</v>
+        <v>76919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,7 +7448,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7424,7 +7463,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7439,7 +7478,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7462,46 +7501,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>12805</v>
+        <v>12184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>18034</v>
+        <v>16611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>30839</v>
+        <v>28795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,46 +7552,46 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>29329</v>
+        <v>28169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>44125</v>
+        <v>64041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>73454</v>
+        <v>92210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7603,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7579,7 +7618,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7594,7 +7633,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7617,46 +7656,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2091</v>
+        <v>1898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1017</v>
+        <v>950</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>3109</v>
+        <v>2848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,46 +7707,46 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>17351</v>
+        <v>15859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>10964</v>
+        <v>10036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>28313</v>
+        <v>25895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7758,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7734,7 +7773,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7749,7 +7788,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7772,46 +7811,46 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>5364</v>
+        <v>5167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>8425</v>
+        <v>7838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>13789</v>
+        <v>13005</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,46 +7862,46 @@
         <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>27342</v>
+        <v>26449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>24046</v>
+        <v>22377</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
       </c>
       <c r="N20" s="7">
-        <v>51388</v>
+        <v>48826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,7 +7913,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7889,7 +7928,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7904,7 +7943,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7927,46 +7966,46 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>13956</v>
+        <v>13708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>24891</v>
+        <v>23250</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>38847</v>
+        <v>36958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,46 +8017,46 @@
         <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>60421</v>
+        <v>59470</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>50189</v>
+        <v>47277</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>110611</v>
+        <v>106747</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +8068,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8044,7 +8083,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8059,7 +8098,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8082,46 +8121,46 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>5999</v>
+        <v>5121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>9219</v>
+        <v>7590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>15218</v>
+        <v>12711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,46 +8172,46 @@
         <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>61057</v>
+        <v>51636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
       </c>
       <c r="I26" s="7">
-        <v>57917</v>
+        <v>47120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
       </c>
       <c r="N26" s="7">
-        <v>118973</v>
+        <v>98756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,7 +8223,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8199,7 +8238,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8214,7 +8253,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8237,46 +8276,46 @@
         <v>61</v>
       </c>
       <c r="D28" s="7">
-        <v>65648</v>
+        <v>64442</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>482</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>133</v>
       </c>
       <c r="I28" s="7">
-        <v>96051</v>
+        <v>89206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>194</v>
       </c>
       <c r="N28" s="7">
-        <v>161699</v>
+        <v>153648</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,46 +8327,46 @@
         <v>277</v>
       </c>
       <c r="D29" s="7">
-        <v>287370</v>
+        <v>275063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>492</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>341</v>
       </c>
       <c r="I29" s="7">
-        <v>265160</v>
+        <v>265009</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
       </c>
       <c r="N29" s="7">
-        <v>552529</v>
+        <v>540072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,7 +8378,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8354,7 +8393,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8369,7 +8408,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
